--- a/DOM_Banner/output/dept_banner/Iyad Mansour_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Iyad Mansour_2023.xlsx
@@ -1210,7 +1210,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3036314732", "https://openalex.org/W4205317059", "https://openalex.org/W3009669391", "https://openalex.org/W4382894326", "https://openalex.org/W3198183218", "https://openalex.org/W3176864053", "https://openalex.org/W3084498529", "https://openalex.org/W3020699490", "https://openalex.org/W4292098121")</t>
+          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3009669391", "https://openalex.org/W4205317059", "https://openalex.org/W3084498529", "https://openalex.org/W3036314732", "https://openalex.org/W4200329650", "https://openalex.org/W3127156785", "https://openalex.org/W3005417802", "https://openalex.org/W3171943759", "https://openalex.org/W4226296940")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Iyad Mansour_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Iyad Mansour_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323671354</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Impact of Nirmatrelvir-Ritonavir in Reducing Hospitalizations Among High-Risk Patients With SARS-CoV-2 During the Omicron Predominant Era</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36898600</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362695290</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Design Evolution of Vehicle Dynamics and Controls from Mechanization, Electrification to Autonomy</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>SAE technical paper series</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.4271/2023-01-0577</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.4271/2023-01-0577</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362695337</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Modular Domain Controller Design Approach: A Key Enabler for ADAS and Automated Driving Functionality</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>SAE technical paper series</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.4271/2023-01-0570</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.4271/2023-01-0570</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376471759</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Effectiveness of Casirivimab-Imdevimab and Sotrovimab Monoclonal Antibody Treatment among High-Risk Patients with Sars-Cov-2 Infection: A Real-World Experience</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Archives of clinical and biomedical research</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.26502/acbr.50170347</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.26502/acbr.50170347</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson; Division of Nephrology, College of Medicine, The University of Arizona, Tucson; Division of Nephrology, College of Medicine, The University of Arizona, Tucson; Division of Nephrology, College of Medicine, The University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4382864201</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Contemporary Monoclonal Antibody Utilization in Glomerular Diseases</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Mayo Clinic Proceedings: Innovations, Quality &amp; Outcomes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mayocpiqo.2023.04.009</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37448529</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mayocpiqo.2023.04.009</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
